--- a/Comment/comment.xlsx
+++ b/Comment/comment.xlsx
@@ -2733,8 +2733,8 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
-      <xdr:colOff>304800</xdr:colOff>
-      <xdr:row>39</xdr:row>
+      <xdr:colOff>393700</xdr:colOff>
+      <xdr:row>40</xdr:row>
       <xdr:rowOff>38100</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">

--- a/Comment/comment.xlsx
+++ b/Comment/comment.xlsx
@@ -356,11 +356,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="65"/>
-        <c:axId val="-2126876064"/>
-        <c:axId val="-2127287680"/>
+        <c:axId val="-2044614816"/>
+        <c:axId val="-2108914352"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="-2126876064"/>
+        <c:axId val="-2044614816"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -403,7 +403,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-2127287680"/>
+        <c:crossAx val="-2108914352"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -411,7 +411,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-2127287680"/>
+        <c:axId val="-2108914352"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -447,7 +447,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2126876064"/>
+        <c:crossAx val="-2044614816"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -964,6 +964,394 @@
 </c:chartSpace>
 </file>
 
+<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="zh-CN"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="1"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:gradFill>
+              <a:gsLst>
+                <a:gs pos="0">
+                  <a:schemeClr val="accent1"/>
+                </a:gs>
+                <a:gs pos="100000">
+                  <a:schemeClr val="accent1">
+                    <a:lumMod val="84000"/>
+                  </a:schemeClr>
+                </a:gs>
+              </a:gsLst>
+              <a:lin ang="5400000" scaled="1"/>
+            </a:gradFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst>
+              <a:outerShdw blurRad="76200" dir="18900000" sy="23000" kx="-1200000" algn="bl" rotWithShape="0">
+                <a:prstClr val="black">
+                  <a:alpha val="20000"/>
+                </a:prstClr>
+              </a:outerShdw>
+            </a:effectLst>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1400" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1"/>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="zh-CN"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="inEnd"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:layout/>
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525">
+                      <a:solidFill>
+                        <a:schemeClr val="dk1">
+                          <a:lumMod val="50000"/>
+                          <a:lumOff val="50000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strLit>
+              <c:ptCount val="22"/>
+              <c:pt idx="0">
+                <c:v>comment=0</c:v>
+              </c:pt>
+              <c:pt idx="1">
+                <c:v>comment=1</c:v>
+              </c:pt>
+              <c:pt idx="2">
+                <c:v>comment=2</c:v>
+              </c:pt>
+              <c:pt idx="3">
+                <c:v>comment=3</c:v>
+              </c:pt>
+              <c:pt idx="4">
+                <c:v>comment=4</c:v>
+              </c:pt>
+              <c:pt idx="5">
+                <c:v>comment=5</c:v>
+              </c:pt>
+              <c:pt idx="6">
+                <c:v>comment=6</c:v>
+              </c:pt>
+              <c:pt idx="7">
+                <c:v>comment=7</c:v>
+              </c:pt>
+              <c:pt idx="8">
+                <c:v>comment=8</c:v>
+              </c:pt>
+              <c:pt idx="9">
+                <c:v>comment=9</c:v>
+              </c:pt>
+              <c:pt idx="10">
+                <c:v>comment=10</c:v>
+              </c:pt>
+              <c:pt idx="11">
+                <c:v>comment=11</c:v>
+              </c:pt>
+              <c:pt idx="12">
+                <c:v>comment=12</c:v>
+              </c:pt>
+              <c:pt idx="13">
+                <c:v>comment=13</c:v>
+              </c:pt>
+              <c:pt idx="14">
+                <c:v>comment=14</c:v>
+              </c:pt>
+              <c:pt idx="15">
+                <c:v>comment=15</c:v>
+              </c:pt>
+              <c:pt idx="16">
+                <c:v>comment=16</c:v>
+              </c:pt>
+              <c:pt idx="17">
+                <c:v>comment=17</c:v>
+              </c:pt>
+              <c:pt idx="18">
+                <c:v>comment=18</c:v>
+              </c:pt>
+              <c:pt idx="19">
+                <c:v>comment=19</c:v>
+              </c:pt>
+              <c:pt idx="20">
+                <c:v>comment=20</c:v>
+              </c:pt>
+              <c:pt idx="21">
+                <c:v>comment&gt;=21</c:v>
+              </c:pt>
+            </c:strLit>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>工作表1!$A$47:$A$68</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="22"/>
+                <c:pt idx="0">
+                  <c:v>1393.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>274.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>185.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>139.0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>112.0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>82.0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>80.0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>50.0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>62.0</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>57.0</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>44.0</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>35.0</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>30.0</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>32.0</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>31.0</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>32.0</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>18.0</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>16.0</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>31.0</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>13.0</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>16.0</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>525.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:dLbls>
+          <c:dLblPos val="inEnd"/>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="1"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="41"/>
+        <c:axId val="-2041075200"/>
+        <c:axId val="-2041073792"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="-2041075200"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1200" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="dk1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:effectLst/>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="zh-CN"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="-2041073792"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="-2041073792"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="1"/>
+        <c:axPos val="l"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="-2041075200"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:solidFill>
+          <a:schemeClr val="bg2">
+            <a:lumMod val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:gradFill flip="none" rotWithShape="1">
+      <a:gsLst>
+        <a:gs pos="0">
+          <a:schemeClr val="lt1"/>
+        </a:gs>
+        <a:gs pos="68000">
+          <a:schemeClr val="lt1">
+            <a:lumMod val="85000"/>
+          </a:schemeClr>
+        </a:gs>
+        <a:gs pos="100000">
+          <a:schemeClr val="lt1"/>
+        </a:gs>
+      </a:gsLst>
+      <a:lin ang="5400000" scaled="1"/>
+      <a:tileRect/>
+    </a:gradFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="zh-CN"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
 <file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
@@ -1084,6 +1472,46 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="205">
   <cs:axisTitle>
@@ -2688,6 +3116,573 @@
         <a:noFill/>
       </a:ln>
     </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="204">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" b="1" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200">
+      <a:effectLst/>
+    </cs:defRPr>
+  </cs:categoryAxis>
+  <cs:chartArea>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:gradFill flip="none" rotWithShape="1">
+        <a:gsLst>
+          <a:gs pos="0">
+            <a:schemeClr val="lt1"/>
+          </a:gs>
+          <a:gs pos="68000">
+            <a:schemeClr val="lt1">
+              <a:lumMod val="85000"/>
+            </a:schemeClr>
+          </a:gs>
+          <a:gs pos="100000">
+            <a:schemeClr val="lt1"/>
+          </a:gs>
+        </a:gsLst>
+        <a:lin ang="5400000" scaled="1"/>
+        <a:tileRect/>
+      </a:gradFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:spPr/>
+    <cs:defRPr sz="1000" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+          <a:alpha val="75000"/>
+        </a:schemeClr>
+      </a:solidFill>
+    </cs:spPr>
+    <cs:defRPr sz="1000" b="1" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:gradFill>
+        <a:gsLst>
+          <a:gs pos="0">
+            <a:schemeClr val="phClr"/>
+          </a:gs>
+          <a:gs pos="100000">
+            <a:schemeClr val="phClr">
+              <a:lumMod val="84000"/>
+            </a:schemeClr>
+          </a:gs>
+        </a:gsLst>
+        <a:lin ang="5400000" scaled="1"/>
+      </a:gradFill>
+      <a:effectLst>
+        <a:outerShdw blurRad="76200" dir="18900000" sy="23000" kx="-1200000" algn="bl" rotWithShape="0">
+          <a:prstClr val="black">
+            <a:alpha val="20000"/>
+          </a:prstClr>
+        </a:outerShdw>
+      </a:effectLst>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:gradFill>
+        <a:gsLst>
+          <a:gs pos="0">
+            <a:schemeClr val="phClr"/>
+          </a:gs>
+          <a:gs pos="100000">
+            <a:schemeClr val="phClr">
+              <a:lumMod val="84000"/>
+            </a:schemeClr>
+          </a:gs>
+        </a:gsLst>
+        <a:lin ang="5400000" scaled="1"/>
+      </a:gradFill>
+      <a:effectLst>
+        <a:outerShdw blurRad="76200" dir="18900000" sy="23000" kx="-1200000" algn="bl" rotWithShape="0">
+          <a:prstClr val="black">
+            <a:alpha val="20000"/>
+          </a:prstClr>
+        </a:outerShdw>
+      </a:effectLst>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:gradFill>
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr"/>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="84000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="1"/>
+        </a:gradFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:gradFill>
+        <a:gsLst>
+          <a:gs pos="0">
+            <a:schemeClr val="phClr"/>
+          </a:gs>
+          <a:gs pos="100000">
+            <a:schemeClr val="phClr">
+              <a:lumMod val="84000"/>
+            </a:schemeClr>
+          </a:gs>
+        </a:gsLst>
+        <a:lin ang="5400000" scaled="1"/>
+      </a:gradFill>
+      <a:effectLst>
+        <a:outerShdw blurRad="76200" dir="18900000" sy="23000" kx="-1200000" algn="bl" rotWithShape="0">
+          <a:prstClr val="black">
+            <a:alpha val="20000"/>
+          </a:prstClr>
+        </a:outerShdw>
+      </a:effectLst>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="6"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="35000"/>
+          <a:lumOff val="65000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr kern="1200">
+      <a:effectLst/>
+    </cs:defRPr>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDash"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1">
+          <a:lumMod val="95000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
   </cs:wall>
 </cs:chartStyle>
 </file>
@@ -2779,6 +3774,36 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>444500</xdr:colOff>
+      <xdr:row>44</xdr:row>
+      <xdr:rowOff>88900</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>673100</xdr:colOff>
+      <xdr:row>69</xdr:row>
+      <xdr:rowOff>165100</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="图表 2"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId4"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -3050,10 +4075,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K32"/>
+  <dimension ref="A1:K68"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A21" workbookViewId="0">
-      <selection activeCell="J38" sqref="J38"/>
+    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="P69" sqref="P69"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -3184,6 +4209,116 @@
         <v>295246</v>
       </c>
     </row>
+    <row r="47" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A47">
+        <v>1393</v>
+      </c>
+    </row>
+    <row r="48" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A48">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="49" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A49">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="50" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A50">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="51" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A51">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="52" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A52">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="53" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A53">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="54" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A54">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="55" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A55">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="56" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A56">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="57" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A57">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="58" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A58">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="59" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A59">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="60" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A60">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="61" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A61">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="62" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A62">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="63" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A63">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="64" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A64">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="65" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A65">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="66" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A66">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="67" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A67">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="68" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A68">
+        <v>525</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
